--- a/studentmtk/evidence.xlsx
+++ b/studentmtk/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="77">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -228,13 +228,55 @@
   </si>
   <si>
     <t>omniflix1x529c3z9qt89387xv72ytkpjl05a9ughhparus</t>
+  </si>
+  <si>
+    <t>0B5FF026E8771090908DE3179C3F6544A5C205BE9E9E23CBF219ECABEAB83705</t>
+  </si>
+  <si>
+    <t>cfk</t>
+  </si>
+  <si>
+    <t>nft02</t>
+  </si>
+  <si>
+    <t>DAE1485E8D3E593EB6E807C7A12010AE3668D133BC1443DCAC0A4A44254CED8C</t>
+  </si>
+  <si>
+    <t>945D8A0EFC76CCFE9BD49903FD277A655657DEEADBC05DACE4EA1E0D068AAC9E</t>
+  </si>
+  <si>
+    <t>nft03</t>
+  </si>
+  <si>
+    <t>81C972C01AE40C2B08DFBD6EDEFB8EC70ECE23AD18C2CD9B1C40FCCBB89B9D0B</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>A0067DA9226A9D3968B5E77AF5375523A0CFC91FF9F35F83A460618B267ACA1B</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>ibc/5BBE797743C1FBFDA73F5D23A209DA98D1CDBA8E13A3B7A5AD31D7ABF4B929DF</t>
+  </si>
+  <si>
+    <t>2A367A0F08C632C4DD92B0300A5537D3BACB98CDB0842307CD80BA189750D283</t>
+  </si>
+  <si>
+    <t>stars1fffc2w92y0acj8pnqe0nuwzc9vnjhqryu9t9l2tdeaqegvjcrf5qfx0elu</t>
+  </si>
+  <si>
+    <t>9BA20459C93876BE13EB6D63F00A24495CA94D6056F752C701C50A5771A16BE4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -244,28 +286,66 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -294,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -374,12 +454,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -428,11 +547,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1602,11 +1727,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="7" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -3078,8 +3203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3128,7 +3253,7 @@
       <c r="B2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="42" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -3143,7 +3268,7 @@
       <c r="G2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="38" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3947,7 +4072,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3979,8 +4106,12 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -4047,7 +4178,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4077,37 +4210,49 @@
       <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="13"/>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="13"/>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
@@ -4127,21 +4272,21 @@
     </row>
     <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4150,9 +4295,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4193,10 +4340,18 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -4207,16 +4362,16 @@
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
@@ -4224,7 +4379,7 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -4235,18 +4390,20 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
@@ -4261,7 +4418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4302,10 +4461,18 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -4318,7 +4485,7 @@
     <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
@@ -4370,7 +4537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4411,10 +4580,18 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -4479,7 +4656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4522,10 +4701,18 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">

--- a/studentmtk/evidence.xlsx
+++ b/studentmtk/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="77">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -92,45 +92,27 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
     <t>nft id</t>
   </si>
   <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
     <t>ibc class on chain</t>
   </si>
   <si>
@@ -270,13 +252,31 @@
   </si>
   <si>
     <t>9BA20459C93876BE13EB6D63F00A24495CA94D6056F752C701C50A5771A16BE4</t>
+  </si>
+  <si>
+    <t>nft12</t>
+  </si>
+  <si>
+    <t>nft07</t>
+  </si>
+  <si>
+    <t>nft08</t>
+  </si>
+  <si>
+    <t>nft09</t>
+  </si>
+  <si>
+    <t>nft10</t>
+  </si>
+  <si>
+    <t>nft11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -320,14 +320,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -335,13 +335,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -374,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -482,23 +475,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -530,11 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -549,15 +526,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1718,7 +1697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D58"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1727,11 +1708,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="7" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -1778,7 +1759,7 @@
     </row>
     <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1789,12 +1770,12 @@
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1805,12 +1786,12 @@
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1821,12 +1802,12 @@
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1837,12 +1818,12 @@
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1853,12 +1834,12 @@
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1869,12 +1850,12 @@
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1885,12 +1866,12 @@
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1901,12 +1882,12 @@
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1917,12 +1898,12 @@
         <v>5</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1933,12 +1914,12 @@
         <v>5</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1949,12 +1930,12 @@
         <v>5</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1965,12 +1946,12 @@
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1981,12 +1962,12 @@
         <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1997,12 +1978,12 @@
         <v>5</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2013,12 +1994,12 @@
         <v>5</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2029,12 +2010,12 @@
         <v>5</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2045,12 +2026,12 @@
         <v>5</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2061,12 +2042,12 @@
         <v>5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2077,12 +2058,12 @@
         <v>5</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2093,12 +2074,12 @@
         <v>5</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2109,12 +2090,12 @@
         <v>5</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2125,12 +2106,12 @@
         <v>5</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2141,7 +2122,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2183,13 +2164,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="20" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="20"/>
+    <col min="1" max="1" width="16" style="15" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,7 +2180,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="11"/>
@@ -2205,18 +2188,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2283,13 +2270,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="21" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="21"/>
+    <col min="1" max="1" width="16" style="16" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2297,7 +2286,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="11"/>
@@ -2305,18 +2294,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2383,13 +2376,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="22" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="22"/>
+    <col min="1" max="1" width="16" style="17" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2397,7 +2392,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="11"/>
@@ -2405,18 +2400,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2483,13 +2482,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="23" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="23"/>
+    <col min="1" max="1" width="16" style="18" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2497,7 +2498,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="11"/>
@@ -2505,18 +2506,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2583,13 +2588,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="24" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="24"/>
+    <col min="1" max="1" width="16" style="19" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2597,7 +2604,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="11"/>
@@ -2605,18 +2612,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2687,9 +2698,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="25" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" style="25" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="25"/>
+    <col min="1" max="1" width="16" style="20" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2697,7 +2708,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="11"/>
@@ -2705,18 +2716,18 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>41</v>
+      <c r="A3" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2724,8 +2735,8 @@
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>41</v>
+      <c r="A4" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2791,9 +2802,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="27" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="27"/>
+    <col min="1" max="1" width="16" style="22" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2801,7 +2812,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="11"/>
@@ -2809,18 +2820,18 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>41</v>
+      <c r="A3" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2828,8 +2839,8 @@
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>41</v>
+      <c r="A4" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2895,9 +2906,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="28" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="28"/>
+    <col min="1" max="1" width="16" style="23" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2905,7 +2916,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="11"/>
@@ -2913,18 +2924,18 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>41</v>
+      <c r="A3" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2932,8 +2943,8 @@
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>41</v>
+      <c r="A4" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2999,9 +3010,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="29" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="29"/>
+    <col min="1" max="1" width="16" style="24" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3009,7 +3020,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="11"/>
@@ -3017,18 +3028,18 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>41</v>
+      <c r="A3" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3036,8 +3047,8 @@
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>41</v>
+      <c r="A4" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3103,9 +3114,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="30" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" style="30" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="30"/>
+    <col min="1" max="1" width="16" style="25" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3113,7 +3124,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="11"/>
@@ -3121,18 +3132,18 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>41</v>
+      <c r="A3" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3140,8 +3151,8 @@
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>41</v>
+      <c r="A4" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3204,7 +3215,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3248,28 +3259,28 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -3372,9 +3383,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="31" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" style="31" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="31"/>
+    <col min="1" max="1" width="16" style="26" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="26" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3382,7 +3393,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="11"/>
@@ -3390,18 +3401,18 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>41</v>
+      <c r="A3" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3409,8 +3420,8 @@
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>41</v>
+      <c r="A4" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3476,9 +3487,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="32" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" style="32" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="32"/>
+    <col min="1" max="1" width="16" style="27" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3486,7 +3497,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="11"/>
@@ -3494,18 +3505,18 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>41</v>
+      <c r="A3" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3513,8 +3524,8 @@
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>41</v>
+      <c r="A4" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3580,9 +3591,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="33" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" style="33" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="33"/>
+    <col min="1" max="1" width="16" style="28" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3590,7 +3601,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="11"/>
@@ -3598,18 +3609,18 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>41</v>
+      <c r="A3" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3617,8 +3628,8 @@
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>41</v>
+      <c r="A4" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3684,8 +3695,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.44140625" style="34" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="34"/>
+    <col min="1" max="6" width="11.44140625" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3699,7 +3710,7 @@
     </row>
     <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3707,8 +3718,8 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>51</v>
+      <c r="A3" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3782,8 +3793,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.44140625" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="6" width="11.44140625" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3797,7 +3808,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3805,8 +3816,8 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>51</v>
+      <c r="A3" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3880,8 +3891,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.44140625" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="36"/>
+    <col min="1" max="6" width="11.44140625" style="31" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3895,7 +3906,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3903,8 +3914,8 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>51</v>
+      <c r="A3" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3978,8 +3989,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.44140625" style="37" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="37"/>
+    <col min="1" max="6" width="11.44140625" style="32" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3993,7 +4004,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4001,8 +4012,8 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>51</v>
+      <c r="A3" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4073,7 +4084,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4095,23 +4106,19 @@
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>18</v>
+      <c r="A2" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -4176,18 +4183,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16" style="14" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="14"/>
+    <col min="1" max="2" width="17.88671875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="16" style="40" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" style="40" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4198,91 +4205,78 @@
         <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
@@ -4295,18 +4289,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16" style="15" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="15"/>
+    <col min="1" max="2" width="17.88671875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="16" style="40" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" style="40" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4317,94 +4311,65 @@
         <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="11"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-    </row>
-    <row r="12" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-    </row>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
   <pageSetup orientation="portrait"/>
@@ -4416,18 +4381,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="16" style="16" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="16"/>
+    <col min="1" max="2" width="17.88671875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="16" style="40" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" style="40" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4438,91 +4403,76 @@
         <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="11"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
@@ -4535,18 +4485,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="16" style="17" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="17"/>
+    <col min="1" max="2" width="17.88671875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="16" style="40" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" style="40" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4557,91 +4507,76 @@
         <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="11"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
@@ -4654,20 +4589,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="16" style="18" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="18" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="18"/>
+    <col min="1" max="1" width="17.88671875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="16" style="40" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="40" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" style="40" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4678,91 +4611,76 @@
         <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="11"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
@@ -4777,13 +4695,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="19" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="19"/>
+    <col min="1" max="1" width="16" style="14" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4791,7 +4711,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="11"/>
@@ -4799,18 +4719,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>

--- a/studentmtk/evidence.xlsx
+++ b/studentmtk/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" firstSheet="2" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="119">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -104,18 +104,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
     <t>A6</t>
   </si>
   <si>
@@ -140,15 +134,6 @@
     <t>A13</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>A14</t>
   </si>
   <si>
@@ -254,33 +239,182 @@
     <t>9BA20459C93876BE13EB6D63F00A24495CA94D6056F752C701C50A5771A16BE4</t>
   </si>
   <si>
-    <t>nft12</t>
-  </si>
-  <si>
-    <t>nft07</t>
-  </si>
-  <si>
-    <t>nft08</t>
-  </si>
-  <si>
-    <t>nft09</t>
-  </si>
-  <si>
-    <t>nft10</t>
-  </si>
-  <si>
-    <t>nft11</t>
+    <t>nftA07</t>
+  </si>
+  <si>
+    <t>ibc/BD040B2E6B075934E6F0FC3BD5858E5ABC49102F83DF1130035C672691D9154D</t>
+  </si>
+  <si>
+    <t>nftA08</t>
+  </si>
+  <si>
+    <t>ibc/A895835B9F203A3A5BE72C1E315F3F05B89FDAE392A7CAAFD8554F9E7D4A501E</t>
+  </si>
+  <si>
+    <t>nftA10</t>
+  </si>
+  <si>
+    <t>nftA11</t>
+  </si>
+  <si>
+    <t>nftA09</t>
+  </si>
+  <si>
+    <t>nftA12</t>
+  </si>
+  <si>
+    <t>ibc/EE99286D044F42FCF1F291FFF8D18C54115E8669D85CBBEC15C8A606455C5494</t>
+  </si>
+  <si>
+    <t>ibc/425CF8B366EAEF1D22C2550D27848A91CEBECC9FCDADAB7C8E6F34B676EA0CD6</t>
+  </si>
+  <si>
+    <t>ibc/3938AFAB036E5BDC3183836AD1355494EA38EFD3457BC38E50FACFA1DC53D35B</t>
+  </si>
+  <si>
+    <t>ibc/911ABFFBB7418636676FD1301923DAFD13AAB95F6E4F7BC9204A61D0D78D24B9</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>19FE5A67AA6105AF284E55B24EA46B057002434311FE48B96857904E3141DC1E</t>
+  </si>
+  <si>
+    <t>5151030716D3E0A9BC87AD179873D8751BC1BFCBFE96FDEE3DC2D96ED908CF21</t>
+  </si>
+  <si>
+    <t>CDE66376EE087AE6C12EEA5B2D1FBCB78012E6DE2CA5F1718D9A585DED804C7D</t>
+  </si>
+  <si>
+    <t>8D92F1CE4AA8C2920C3EF25F59FE693C690E41A4316A19CFABDAAF9B7503C368</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>DE16F64464AB26C7CEE2B8411E63DFA2058AF9F330A969497A647212011A4427</t>
+  </si>
+  <si>
+    <t>BA7F77E25EB9AFE246325910ED10BE6C7931517E10ED627C027ABFAEC420C025</t>
+  </si>
+  <si>
+    <t>905471AA80893647820A829EE58A42C5BB4969444FD3FE8186773FABD5818546</t>
+  </si>
+  <si>
+    <t>5CFADA08E3C7E04D901D45126B07B56AF0DA63250AB0AC68CC3B5C1275668C29</t>
+  </si>
+  <si>
+    <t>0EF55F1A18393ACE0D2914D081ED7C70F47A2CE089BA682DF876AF28C54F40D9</t>
+  </si>
+  <si>
+    <t>BE67F2D8AB08257DD2BEDD42CEC93964FBF3BF5543871CA5B242080E61576683</t>
+  </si>
+  <si>
+    <t>622B25EEB3663FE364EB0A2F7C948743E83CB34E843AD2BC6B8AF3941345EC7A</t>
+  </si>
+  <si>
+    <t>E9F6074564106C4CE075E5C7E101A29D3226DE27AA839D941CCAE0ACACA73693</t>
+  </si>
+  <si>
+    <t>9872D9236700D1199E6187450EC296C1EAA7582F4337094E1EFE1E06F99EB2B9</t>
+  </si>
+  <si>
+    <t>3EF7C2062BFD42315035AAF6069E921F8B5D8053F7F13A2AFEEB2D84F316994A</t>
+  </si>
+  <si>
+    <t>6D80E2E635F885189163DFFB3072F121437E44EBB13D6BD01E09F65A5F233DDE</t>
+  </si>
+  <si>
+    <t>8B597F75DA9915366E4A4EE1477C43164FF6F144492AAE8E31C8F956A12BC68B</t>
+  </si>
+  <si>
+    <t>C0404785C0A496EF5426908A43A56979BF699E73D2CFE5B89E803B47A3C8343F</t>
+  </si>
+  <si>
+    <t>2860AEA949888E24772F0737D311C03FB54CA335C8417ABAA5736C3AFBBB0260</t>
+  </si>
+  <si>
+    <t>942E0ACD15F351146B80F50648F93A905494127B58100DD270368C3A5B26499A</t>
+  </si>
+  <si>
+    <t>44288B87E899937859936026BFAB105BFE082E2CB87BC03BC26E5AE762D19982</t>
+  </si>
+  <si>
+    <t>15FD59285B011ACFC4EA6F3EC1A892B25564FC186D3FCC739DF008B3E4516A30</t>
+  </si>
+  <si>
+    <t>1AA63EE8072C0A490FE1643649E13BE813FB890CA0415E3EE3CC18080454ABE1</t>
+  </si>
+  <si>
+    <t>297D632928500116F64301B0C56D9F863A88DFB4566EC2988E8F2F5BFDE4B75D</t>
+  </si>
+  <si>
+    <t>28084193E52040EA2A4301440FC21E3DD4C1A7FD8920DD6480855C44F167C5C5</t>
+  </si>
+  <si>
+    <t>CF116F23AAB180AF6BD693523A0D327F50188277B78AD21C21A1C8B0A27BE129</t>
+  </si>
+  <si>
+    <t>15F7379C7829A2035DDC1D1D7278CEB934261C1AA4B91285310103C7EC8B3083</t>
+  </si>
+  <si>
+    <t>EE7162DF47A24AA2602FD589BAB7DE8E552E09D975941D9E8215295552232056</t>
+  </si>
+  <si>
+    <t>D339D0ABF9F230E87C903BE6FEC708A1ADA2AB70728A683E209D48BFDA0B7A56</t>
+  </si>
+  <si>
+    <t>C5E7B1DD50C35F57255D32258112CB27520E4C6D39FA92C40D77E5B32201BB5F</t>
+  </si>
+  <si>
+    <t>1ED2704C07A3957035A6F638CD912E5B68C8E2174E9D074690560C779CA782EF</t>
+  </si>
+  <si>
+    <t>8F1469AAFC119AA86E6533D980BC579D4AB410CC4EF0B76166E37079633E9C85</t>
+  </si>
+  <si>
+    <t>73CBE4CF371F8E56002B5EC9AA12FE1DDB8DE104D9FE69CD3B3F13C1BCB691E0</t>
+  </si>
+  <si>
+    <t>D895486331ADB3FD77B263DDBC23000CFDFB68D79082B8B72167A1F2E2FF54CF</t>
+  </si>
+  <si>
+    <t>69FB9B24E937E34C68DC4268BA87A3A01D78DA89BC34E06E71A79A4E145C7B79</t>
+  </si>
+  <si>
+    <t>E9345CF7A67372A2AA96766C77F78B034984DEC82466B785D37942484DEEE8B6</t>
+  </si>
+  <si>
+    <t>B9124446DF868D82ADA0AAA7763569DFAB13ADA18D57B6FDDCD7B4EB399BE8AA</t>
+  </si>
+  <si>
+    <t>1779DEE6DB87E0E59234E1989BFF4AE58BC5BC24B6C11F13456FE9CD9B671CC0</t>
+  </si>
+  <si>
+    <t>9FACBED2A1B7BA1202F17A8F7CF81A690101736ECC2D6EC54A8B7B0A63C0E9FA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -321,13 +455,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -336,6 +463,26 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -367,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -475,31 +622,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -512,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -524,23 +684,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1701,20 +1866,20 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="4" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+    <row r="3" spans="2:4" ht="0" hidden="1" customHeight="1">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-    </row>
-    <row r="7" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+    </row>
+    <row r="7" spans="2:4" ht="17.399999999999999">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1725,14 +1890,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="15">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -1741,14 +1906,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="15">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>5</v>
@@ -1757,14 +1922,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="15">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="15">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>5</v>
@@ -1773,14 +1938,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="15">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="15">
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>5</v>
@@ -1789,340 +1954,340 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="15">
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="15">
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15">
+      <c r="B19" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="15">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15">
+      <c r="B21" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="15">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15">
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="15">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15">
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="15">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15">
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="15">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15">
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="15">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15">
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" ht="15">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15">
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="15">
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15">
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="15">
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15">
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" ht="15">
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="15">
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" ht="15">
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="15">
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" ht="15">
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="15">
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="15">
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="15">
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="15">
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="15">
       <c r="B47" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="15">
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15">
       <c r="B49" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" ht="15">
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="15">
       <c r="B51" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" ht="15">
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="15">
       <c r="B53" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" ht="15">
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="15">
       <c r="B55" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" ht="15">
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="15">
       <c r="B57" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" ht="15">
       <c r="B58" s="3"/>
       <c r="C58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2162,20 +2327,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="15" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="15" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -2186,76 +2351,65 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>21</v>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>68</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>73</v>
-      </c>
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
@@ -2268,20 +2422,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="16" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="16" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -2292,76 +2446,65 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>21</v>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>72</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>74</v>
-      </c>
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
@@ -2374,20 +2517,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="17" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="17" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -2398,76 +2541,65 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>21</v>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>70</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>75</v>
-      </c>
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
@@ -2480,20 +2612,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="18" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="18" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -2504,76 +2636,65 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>21</v>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>76</v>
-      </c>
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
@@ -2586,20 +2707,20 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="19" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="19" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -2610,76 +2731,65 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>21</v>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>71</v>
-      </c>
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
@@ -2694,16 +2804,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="20" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="20" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -2714,71 +2826,79 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>81</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2798,16 +2918,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="22" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="22" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -2818,71 +2940,79 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>85</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2902,16 +3032,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="23" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="23" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -2922,71 +3054,79 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>89</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3006,16 +3146,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="24" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="24" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3026,71 +3168,79 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3110,16 +3260,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="25" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="25" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3130,71 +3282,79 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>97</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3215,10 +3375,10 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" style="5" customWidth="1"/>
@@ -3231,7 +3391,7 @@
     <col min="10" max="16384" width="12.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -3257,33 +3417,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.65" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3293,7 +3453,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3303,7 +3463,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -3313,7 +3473,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -3323,7 +3483,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3333,7 +3493,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -3343,7 +3503,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3353,7 +3513,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3379,16 +3539,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="26" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="26" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3399,71 +3561,79 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>101</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3483,16 +3653,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="27" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="27" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3503,71 +3675,87 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>105</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3587,16 +3775,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="28" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="28" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3607,71 +3797,87 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>111</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>112</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3691,15 +3897,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="11.44140625" style="29" customWidth="1"/>
     <col min="7" max="16384" width="11.44140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3708,67 +3916,61 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>44</v>
-      </c>
+    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1">
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>45</v>
-      </c>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3789,15 +3991,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="11.44140625" style="30" customWidth="1"/>
     <col min="7" max="16384" width="11.44140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3806,67 +4010,67 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>44</v>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>117</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>45</v>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A3" s="44" t="s">
+        <v>118</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3889,13 +4093,13 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="11.44140625" style="31" customWidth="1"/>
     <col min="7" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -3904,67 +4108,67 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3987,13 +4191,13 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="11.44140625" style="32" customWidth="1"/>
     <col min="7" max="16384" width="11.44140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -4002,67 +4206,67 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -4087,14 +4291,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="17.88671875" style="12" customWidth="1"/>
     <col min="3" max="6" width="12.6640625" style="12" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -4105,67 +4309,67 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>58</v>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -4183,21 +4387,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="16" style="40" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" style="40" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="40"/>
+    <col min="1" max="2" width="17.88671875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="16" style="36" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" style="36" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -4207,76 +4411,69 @@
       <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="38"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
@@ -4295,15 +4492,15 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="16" style="40" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" style="40" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="40"/>
+    <col min="1" max="2" width="17.88671875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="16" style="36" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" style="36" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -4316,60 +4513,60 @@
       <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="38" t="s">
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C2" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.65" customHeight="1"/>
+    <row r="9" spans="1:5" ht="13.65" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
   <pageSetup orientation="portrait"/>
@@ -4387,15 +4584,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="16" style="40" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" style="40" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="40"/>
+    <col min="1" max="2" width="17.88671875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="16" style="36" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" style="36" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -4408,71 +4605,71 @@
       <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
@@ -4491,15 +4688,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="16" style="40" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" style="40" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="40"/>
+    <col min="1" max="2" width="17.88671875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="16" style="36" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" style="36" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -4512,71 +4709,71 @@
       <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="38" t="s">
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="C2" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
@@ -4591,19 +4788,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="16" style="40" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="40" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" style="40" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="40"/>
+    <col min="1" max="1" width="17.88671875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="16" style="36" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="36" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" style="36" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -4616,71 +4815,71 @@
       <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
@@ -4693,20 +4892,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="14" customWidth="1"/>
     <col min="2" max="6" width="12.6640625" style="14" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.2" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -4717,80 +4916,69 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>21</v>
+    <row r="2" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>72</v>
-      </c>
+    <row r="3" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51181100000000002" footer="0.51181100000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/studentmtk/evidence.xlsx
+++ b/studentmtk/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" firstSheet="2" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" firstSheet="3" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="B2" sheetId="24" r:id="rId24"/>
     <sheet name="B5" sheetId="25" r:id="rId25"/>
     <sheet name="B6" sheetId="26" r:id="rId26"/>
+    <sheet name="B7" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="123">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -158,12 +159,6 @@
     <t>B1</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
@@ -396,6 +391,24 @@
   </si>
   <si>
     <t>9FACBED2A1B7BA1202F17A8F7CF81A690101736ECC2D6EC54A8B7B0A63C0E9FA</t>
+  </si>
+  <si>
+    <t>DD89D7A0422518DB4177DDDF5C490C79DBBFB805C3E9C344FF388FE66332F58C</t>
+  </si>
+  <si>
+    <t>74A8197BD21D5724F79223719BF58CB530C3D477CD9B3A2E9BF9A28BAFAD8DF3</t>
+  </si>
+  <si>
+    <t>57EBFD18F4D3ACEE295BD8751540CE0D4C8A0E1DD9C214EF04FD967356F03860</t>
+  </si>
+  <si>
+    <t>B078E76CD74002CD2F3D90CE87027DCB2C8FE05C350A4DC197388B8640132A59</t>
+  </si>
+  <si>
+    <t>0A29AD8282649A26CEC9F3E734C0FFDCE2AE60DE0E5FEDD6B0F0F8F348812CDE</t>
+  </si>
+  <si>
+    <t>18FB986C04EDCD438164F7B49A1F2F46B1C33F05ACC64800F43937DD093F17E9</t>
   </si>
 </sst>
 </file>
@@ -2244,7 +2257,7 @@
     </row>
     <row r="53" spans="2:4" ht="15">
       <c r="B53" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2255,12 +2268,12 @@
         <v>5</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="15">
       <c r="B55" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2271,12 +2284,12 @@
         <v>5</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="15">
       <c r="B57" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2287,7 +2300,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2353,10 +2366,10 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2448,10 +2461,10 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2543,10 +2556,10 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2638,10 +2651,10 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2733,10 +2746,10 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2828,10 +2841,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2839,10 +2852,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2850,10 +2863,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2861,10 +2874,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2942,10 +2955,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2953,10 +2966,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2964,10 +2977,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2975,10 +2988,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3056,10 +3069,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3067,10 +3080,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3078,10 +3091,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3089,10 +3102,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3170,10 +3183,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3181,10 +3194,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3192,10 +3205,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3203,10 +3216,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3284,10 +3297,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3295,10 +3308,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3306,10 +3319,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3317,10 +3330,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3419,28 +3432,28 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.65" customHeight="1">
@@ -3563,10 +3576,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3574,10 +3587,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3585,10 +3598,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3596,10 +3609,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3677,10 +3690,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3688,10 +3701,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3699,10 +3712,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3710,10 +3723,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3721,10 +3734,10 @@
     </row>
     <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -3732,10 +3745,10 @@
     </row>
     <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -3799,10 +3812,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3810,10 +3823,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3821,10 +3834,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3832,10 +3845,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3843,10 +3856,10 @@
     </row>
     <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -3854,10 +3867,10 @@
     </row>
     <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -4012,7 +4025,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4021,7 +4034,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4091,7 +4104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
@@ -4110,7 +4125,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4119,7 +4134,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4189,7 +4204,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
@@ -4208,7 +4225,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4217,7 +4234,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4280,6 +4297,101 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KFFFFFFB6</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KFFFFFFPage &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.05" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="11.44140625" style="32" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4311,10 +4423,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -4416,26 +4528,26 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -4517,16 +4629,16 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>59</v>
       </c>
       <c r="E2" s="34"/>
     </row>
@@ -4609,16 +4721,16 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>62</v>
-      </c>
       <c r="C2" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="34"/>
     </row>
@@ -4713,16 +4825,16 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>59</v>
       </c>
       <c r="E2" s="34"/>
     </row>
@@ -4819,16 +4931,16 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="34"/>
     </row>
@@ -4918,10 +5030,10 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>

--- a/studentmtk/evidence.xlsx
+++ b/studentmtk/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" firstSheet="3" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13176" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -198,42 +198,18 @@
     <t>cfk</t>
   </si>
   <si>
-    <t>nft02</t>
-  </si>
-  <si>
-    <t>DAE1485E8D3E593EB6E807C7A12010AE3668D133BC1443DCAC0A4A44254CED8C</t>
-  </si>
-  <si>
-    <t>945D8A0EFC76CCFE9BD49903FD277A655657DEEADBC05DACE4EA1E0D068AAC9E</t>
-  </si>
-  <si>
-    <t>nft03</t>
-  </si>
-  <si>
-    <t>81C972C01AE40C2B08DFBD6EDEFB8EC70ECE23AD18C2CD9B1C40FCCBB89B9D0B</t>
-  </si>
-  <si>
     <t>elgafar-1</t>
   </si>
   <si>
-    <t>A0067DA9226A9D3968B5E77AF5375523A0CFC91FF9F35F83A460618B267ACA1B</t>
-  </si>
-  <si>
     <t>uptick_7000-2</t>
   </si>
   <si>
     <t>ibc/5BBE797743C1FBFDA73F5D23A209DA98D1CDBA8E13A3B7A5AD31D7ABF4B929DF</t>
   </si>
   <si>
-    <t>2A367A0F08C632C4DD92B0300A5537D3BACB98CDB0842307CD80BA189750D283</t>
-  </si>
-  <si>
     <t>stars1fffc2w92y0acj8pnqe0nuwzc9vnjhqryu9t9l2tdeaqegvjcrf5qfx0elu</t>
   </si>
   <si>
-    <t>9BA20459C93876BE13EB6D63F00A24495CA94D6056F752C701C50A5771A16BE4</t>
-  </si>
-  <si>
     <t>nftA07</t>
   </si>
   <si>
@@ -409,6 +385,30 @@
   </si>
   <si>
     <t>18FB986C04EDCD438164F7B49A1F2F46B1C33F05ACC64800F43937DD093F17E9</t>
+  </si>
+  <si>
+    <t>63712087F87FE39656E51E2BE7B6BFDC3EA061175B7191377843333A039C0543</t>
+  </si>
+  <si>
+    <t>FB357D71F34A4667E11B73A84B21D17BE65130D82F781B3DFF66E108AAD36CA9</t>
+  </si>
+  <si>
+    <t>nft2000</t>
+  </si>
+  <si>
+    <t>nft1000</t>
+  </si>
+  <si>
+    <t>6FDE426CCE0212B552AB9AEAA08ED9CE93F317D3BB4EDBD84E9E4C9B345F7387</t>
+  </si>
+  <si>
+    <t>6F9AADFE19875073AC6116DD6FA4499EBB659D5B9577D3FB8039D966684A6EE8</t>
+  </si>
+  <si>
+    <t>28112AACB14BDB918DFEC7D17A45A391DEF8AAB03300B47DEAD6A49A03F24901</t>
+  </si>
+  <si>
+    <t>5D33F8A652412EC4BE472D36CD76A45A1CBB39ABEC94510A698FCBA168E043E4</t>
   </si>
 </sst>
 </file>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2556,10 +2556,10 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2746,10 +2746,10 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="42" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2852,10 +2852,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2863,10 +2863,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2874,10 +2874,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2955,10 +2955,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2966,10 +2966,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2977,10 +2977,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3069,10 +3069,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3091,10 +3091,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3102,10 +3102,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3183,10 +3183,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3194,10 +3194,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3216,10 +3216,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3297,10 +3297,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3308,10 +3308,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3319,10 +3319,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3330,10 +3330,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3388,7 +3388,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="43" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3690,10 +3690,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3701,10 +3701,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3712,10 +3712,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3734,10 +3734,10 @@
     </row>
     <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -3788,7 +3788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3812,10 +3812,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3823,10 +3823,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3834,10 +3834,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3845,10 +3845,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3856,10 +3856,10 @@
     </row>
     <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -3867,10 +3867,10 @@
     </row>
     <row r="7" spans="1:5" ht="13.65" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="44" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4502,7 +4502,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
@@ -4528,26 +4528,26 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="13.65" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -4601,7 +4601,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
@@ -4629,16 +4629,16 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="34" t="s">
         <v>55</v>
       </c>
+      <c r="C2" s="38" t="s">
+        <v>118</v>
+      </c>
       <c r="D2" s="34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E2" s="34"/>
     </row>
@@ -4693,7 +4693,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
@@ -4721,16 +4721,16 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E2" s="34"/>
     </row>
@@ -4797,7 +4797,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
@@ -4825,16 +4825,16 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="34" t="s">
         <v>55</v>
       </c>
+      <c r="C2" s="38" t="s">
+        <v>118</v>
+      </c>
       <c r="D2" s="34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E2" s="34"/>
     </row>
@@ -4901,7 +4901,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1"/>
@@ -4931,16 +4931,16 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E2" s="34"/>
     </row>
@@ -5006,7 +5006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5030,10 +5030,10 @@
     </row>
     <row r="2" spans="1:5" ht="13.65" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
